--- a/src/main/resources/excel/laboratorios.xlsx
+++ b/src/main/resources/excel/laboratorios.xlsx
@@ -6581,7 +6581,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>2</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
